--- a/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/24寸墙体图纸/11962411  7寸宽24寸长42寸高墙体灰色左电源.xlsx
+++ b/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/24寸墙体图纸/11962411  7寸宽24寸长42寸高墙体灰色左电源.xlsx
@@ -269,14 +269,6 @@
     <t>十字盘头螺丝</t>
   </si>
   <si>
-    <t>FSW-07-3642-PDU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7寸宽，42寸高，36寸长墙体，PDU通道小封板  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11962411  7寸宽24寸长42寸高墙体灰色左电源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,6 +334,14 @@
   </si>
   <si>
     <t xml:space="preserve">7寸24寸墙体上盖板，Dark Grey </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSW-07-2442-PDU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7寸宽，42寸高，24寸长墙体，PDU通道小封板  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -739,6 +739,63 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,63 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1164,16 +1164,16 @@
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -1181,20 +1181,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="74">
         <f ca="1">TODAY()</f>
-        <v>42166</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="61" t="s">
+        <v>42209</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1206,17 +1206,17 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="B5" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1"/>
@@ -1226,20 +1226,20 @@
       <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="64"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1248,23 +1248,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B8" s="72">
+      <c r="B8" s="63">
         <v>1</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="31">
         <v>11010000</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="32">
         <v>1</v>
       </c>
@@ -1273,67 +1273,67 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="B9" s="72"/>
-      <c r="C9" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="67"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="57"/>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="32">
         <v>11012401</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="67"/>
+      <c r="G9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="57"/>
       <c r="I9" s="32">
         <v>1</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B10" s="72"/>
-      <c r="C10" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="67"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="57"/>
       <c r="E10" s="31">
         <v>3</v>
       </c>
       <c r="F10" s="32">
         <v>11012402</v>
       </c>
-      <c r="G10" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="67"/>
+      <c r="G10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="57"/>
       <c r="I10" s="32">
         <v>1</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B11" s="72"/>
-      <c r="C11" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="57"/>
       <c r="E11" s="31">
         <v>4</v>
       </c>
       <c r="F11" s="32">
         <v>11013604</v>
       </c>
-      <c r="G11" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="67"/>
+      <c r="G11" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="57"/>
       <c r="I11" s="32">
         <v>1</v>
       </c>
@@ -1342,67 +1342,67 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="67"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="57"/>
       <c r="E12" s="34">
         <v>5</v>
       </c>
       <c r="F12" s="32">
         <v>11022411</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="67"/>
+      <c r="G12" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="57"/>
       <c r="I12" s="32">
         <v>1</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B13" s="72"/>
-      <c r="C13" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="57"/>
       <c r="E13" s="34">
         <v>6</v>
       </c>
       <c r="F13" s="32">
         <v>11022412</v>
       </c>
-      <c r="G13" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="67"/>
+      <c r="G13" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="57"/>
       <c r="I13" s="32">
         <v>1</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B14" s="72"/>
-      <c r="C14" s="66" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="34">
         <v>7</v>
       </c>
       <c r="F14" s="32">
         <v>11030000</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="32">
         <v>2</v>
       </c>
@@ -1411,21 +1411,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="78"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="59"/>
       <c r="E15" s="39">
         <v>8</v>
       </c>
       <c r="F15" s="40">
         <v>11031500</v>
       </c>
-      <c r="G15" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="78"/>
+      <c r="G15" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="59"/>
       <c r="I15" s="40">
         <v>1</v>
       </c>
@@ -1434,21 +1434,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B16" s="72"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="39">
         <v>9</v>
       </c>
       <c r="F16" s="40">
         <v>11040003</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="40">
         <v>1</v>
       </c>
@@ -1457,21 +1457,21 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B17" s="72"/>
-      <c r="C17" s="77" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="39">
         <v>10</v>
       </c>
       <c r="F17" s="40">
         <v>11049003</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="78"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="40">
         <v>1</v>
       </c>
@@ -1480,21 +1480,21 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B18" s="72"/>
-      <c r="C18" s="77" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="39">
         <v>11</v>
       </c>
       <c r="F18" s="40">
         <v>11049004</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="40">
         <v>1</v>
       </c>
@@ -1503,67 +1503,67 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B19" s="72"/>
-      <c r="C19" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="67"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="57"/>
       <c r="E19" s="34">
         <v>12</v>
       </c>
       <c r="F19" s="32">
         <v>11052400</v>
       </c>
-      <c r="G19" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="67"/>
+      <c r="G19" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="57"/>
       <c r="I19" s="32">
         <v>1</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B20" s="72"/>
-      <c r="C20" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="67"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="57"/>
       <c r="E20" s="34">
         <v>13</v>
       </c>
       <c r="F20" s="32">
         <v>11052420</v>
       </c>
-      <c r="G20" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="67"/>
+      <c r="G20" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="57"/>
       <c r="I20" s="32">
         <v>1</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="28"/>
       <c r="F21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="36">
         <v>4</v>
       </c>
@@ -1573,18 +1573,18 @@
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="69"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="37"/>
       <c r="F22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="82"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="36">
         <v>2</v>
       </c>
@@ -1594,18 +1594,18 @@
       <c r="B23" s="28">
         <v>4</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="28"/>
       <c r="F23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="36">
         <v>2</v>
       </c>
@@ -1615,18 +1615,18 @@
       <c r="B24" s="28">
         <v>5</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="69"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="28"/>
       <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="80"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="36">
         <v>1</v>
       </c>
@@ -1636,18 +1636,18 @@
       <c r="B25" s="28">
         <v>6</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="37"/>
       <c r="F25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="36">
         <v>4</v>
       </c>
@@ -1657,18 +1657,18 @@
       <c r="B26" s="28">
         <v>7</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="42"/>
       <c r="F26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="83"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="44">
         <v>4</v>
       </c>
@@ -1678,18 +1678,18 @@
       <c r="B27" s="28">
         <v>8</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="28"/>
       <c r="F27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="36">
         <v>2</v>
       </c>
@@ -1699,18 +1699,18 @@
       <c r="B28" s="45">
         <v>9</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47">
         <v>1280072</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="79"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="48">
         <v>9</v>
       </c>
@@ -1718,8 +1718,8 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="26"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="12"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -1729,8 +1729,8 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="26"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="12"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -1740,8 +1740,8 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="26"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
       <c r="G31" s="22"/>
@@ -1751,8 +1751,8 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="26"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="15"/>
       <c r="F32" s="14"/>
       <c r="G32" s="20"/>
@@ -1762,8 +1762,8 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="26"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
@@ -1773,8 +1773,8 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="26"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="12"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -1806,8 +1806,8 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="12"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
       <c r="G37" s="20"/>
@@ -1817,8 +1817,8 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="12"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
       <c r="G38" s="20"/>
@@ -1827,9 +1827,9 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="15"/>
       <c r="F39" s="14"/>
       <c r="G39" s="20"/>
@@ -1838,9 +1838,9 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="73"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="12"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
@@ -1849,9 +1849,9 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="73"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="12"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -1860,9 +1860,9 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="20"/>
@@ -1871,9 +1871,9 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="73"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="12"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
@@ -1882,9 +1882,9 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="73"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="12"/>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
@@ -2158,38 +2158,26 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -2206,26 +2194,38 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/24寸墙体图纸/11962411  7寸宽24寸长42寸高墙体灰色左电源.xlsx
+++ b/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/24寸墙体图纸/11962411  7寸宽24寸长42寸高墙体灰色左电源.xlsx
@@ -739,12 +739,99 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -754,95 +841,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1164,16 +1164,16 @@
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -1181,20 +1181,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="55">
         <f ca="1">TODAY()</f>
         <v>42209</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="80" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="71" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1206,17 +1206,17 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1"/>
@@ -1226,20 +1226,20 @@
       <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1248,23 +1248,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B8" s="63">
+      <c r="B8" s="72">
         <v>1</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="31">
         <v>11010000</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="57"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="32">
         <v>1</v>
       </c>
@@ -1273,21 +1273,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="32">
         <v>11012401</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="57"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="32">
         <v>1</v>
       </c>
@@ -1296,21 +1296,21 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="31">
         <v>3</v>
       </c>
       <c r="F10" s="32">
         <v>11012402</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="57"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="32">
         <v>1</v>
       </c>
@@ -1319,21 +1319,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="31">
         <v>4</v>
       </c>
       <c r="F11" s="32">
-        <v>11013604</v>
-      </c>
-      <c r="G11" s="56" t="s">
+        <v>11012404</v>
+      </c>
+      <c r="G11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="32">
         <v>1</v>
       </c>
@@ -1342,21 +1342,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="34">
         <v>5</v>
       </c>
       <c r="F12" s="32">
         <v>11022411</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="32">
         <v>1</v>
       </c>
@@ -1365,21 +1365,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="34">
         <v>6</v>
       </c>
       <c r="F13" s="32">
         <v>11022412</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="32">
         <v>1</v>
       </c>
@@ -1388,21 +1388,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="34">
         <v>7</v>
       </c>
       <c r="F14" s="32">
         <v>11030000</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="32">
         <v>2</v>
       </c>
@@ -1411,21 +1411,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="39">
         <v>8</v>
       </c>
       <c r="F15" s="40">
         <v>11031500</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="40">
         <v>1</v>
       </c>
@@ -1434,21 +1434,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="39">
         <v>9</v>
       </c>
       <c r="F16" s="40">
         <v>11040003</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="40">
         <v>1</v>
       </c>
@@ -1457,21 +1457,21 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="39">
         <v>10</v>
       </c>
       <c r="F17" s="40">
         <v>11049003</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="40">
         <v>1</v>
       </c>
@@ -1480,21 +1480,21 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B18" s="63"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="39">
         <v>11</v>
       </c>
       <c r="F18" s="40">
         <v>11049004</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="40">
         <v>1</v>
       </c>
@@ -1503,21 +1503,21 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B19" s="63"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="34">
         <v>12</v>
       </c>
       <c r="F19" s="32">
         <v>11052400</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="32">
         <v>1</v>
       </c>
@@ -1526,21 +1526,21 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="34">
         <v>13</v>
       </c>
       <c r="F20" s="32">
         <v>11052420</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="32">
         <v>1</v>
       </c>
@@ -1552,18 +1552,18 @@
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="28"/>
       <c r="F21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="36">
         <v>4</v>
       </c>
@@ -1573,18 +1573,18 @@
       <c r="B22" s="28">
         <v>3</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="37"/>
       <c r="F22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="36">
         <v>2</v>
       </c>
@@ -1594,18 +1594,18 @@
       <c r="B23" s="28">
         <v>4</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="28"/>
       <c r="F23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="51"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="36">
         <v>2</v>
       </c>
@@ -1615,18 +1615,18 @@
       <c r="B24" s="28">
         <v>5</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="28"/>
       <c r="F24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="36">
         <v>1</v>
       </c>
@@ -1636,18 +1636,18 @@
       <c r="B25" s="28">
         <v>6</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="37"/>
       <c r="F25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="36">
         <v>4</v>
       </c>
@@ -1657,18 +1657,18 @@
       <c r="B26" s="28">
         <v>7</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="67"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="42"/>
       <c r="F26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="44">
         <v>4</v>
       </c>
@@ -1678,18 +1678,18 @@
       <c r="B27" s="28">
         <v>8</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="28"/>
       <c r="F27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="36">
         <v>2</v>
       </c>
@@ -1699,18 +1699,18 @@
       <c r="B28" s="45">
         <v>9</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47">
         <v>1280072</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="49"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="48">
         <v>9</v>
       </c>
@@ -1718,8 +1718,8 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="26"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="12"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -1729,8 +1729,8 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="26"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="12"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17"/>
@@ -1740,8 +1740,8 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="26"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="21"/>
       <c r="F31" s="16"/>
       <c r="G31" s="22"/>
@@ -1751,8 +1751,8 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="26"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="15"/>
       <c r="F32" s="14"/>
       <c r="G32" s="20"/>
@@ -1762,8 +1762,8 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="26"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>
@@ -1773,8 +1773,8 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="26"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="12"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
@@ -1806,8 +1806,8 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="12"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
       <c r="G37" s="20"/>
@@ -1817,8 +1817,8 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="12"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="13"/>
       <c r="F38" s="14"/>
       <c r="G38" s="20"/>
@@ -1827,9 +1827,9 @@
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="61"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="15"/>
       <c r="F39" s="14"/>
       <c r="G39" s="20"/>
@@ -1838,9 +1838,9 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="12"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
@@ -1849,9 +1849,9 @@
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="12"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
@@ -1860,9 +1860,9 @@
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="61"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="15"/>
       <c r="F42" s="14"/>
       <c r="G42" s="20"/>
@@ -1871,9 +1871,9 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
       <c r="E43" s="12"/>
       <c r="F43" s="16"/>
       <c r="G43" s="17"/>
@@ -1882,9 +1882,9 @@
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="12"/>
       <c r="F44" s="16"/>
       <c r="G44" s="17"/>
@@ -2158,26 +2158,38 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -2194,38 +2206,26 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
